--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,12 @@
     <t>prefab_name</t>
   </si>
   <si>
+    <t>collider_size</t>
+  </si>
+  <si>
+    <t>speed_move</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -47,6 +53,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -56,10 +65,19 @@
     <t>预制名字</t>
   </si>
   <si>
+    <t>碰撞检测大小</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>AttackModeMelee</t>
+  </si>
+  <si>
+    <t>AttackMode_MeleeNormal</t>
   </si>
   <si>
     <t>普通近战攻击</t>
@@ -1039,20 +1057,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="3" width="47.5" customWidth="1"/>
-    <col min="4" max="4" width="42.875" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="2" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="42.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,58 +1083,91 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>100001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>200001</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1140,7 +1191,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:E88">
+  <sortState ref="A4:G88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>prefab_name</t>
   </si>
   <si>
+    <t>buff</t>
+  </si>
+  <si>
     <t>collider_size</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>预制名字</t>
   </si>
   <si>
+    <t>攻击buff</t>
+  </si>
+  <si>
     <t>碰撞检测大小</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
   </si>
   <si>
     <t>AttackMode_RangedBone</t>
+  </si>
+  <si>
+    <t>id:1001,triggerNum:3,demage:10</t>
   </si>
   <si>
     <t>投掷骨头攻击</t>
@@ -1057,20 +1066,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="42.875" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="2" max="6" width="47.5" customWidth="1"/>
+    <col min="7" max="7" width="42.875" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,85 +1098,98 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>100001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>200001</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
+      <c r="G5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1191,7 +1213,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:G88">
+  <sortState ref="A4:H88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -95,7 +95,7 @@
     <t>AttackMode_RangedBone</t>
   </si>
   <si>
-    <t>id:1001,triggerNum:3,demage:10</t>
+    <t>id:1001,triggerValue:-0.5,triggerTime:5</t>
   </si>
   <si>
     <t>投掷骨头攻击</t>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -92,13 +92,13 @@
     <t>AttackModeRanged</t>
   </si>
   <si>
-    <t>AttackMode_RangedBone</t>
+    <t>AttackMode_RangedNormal</t>
   </si>
   <si>
     <t>id:1001,triggerValue:-0.5,triggerTime:5</t>
   </si>
   <si>
-    <t>投掷骨头攻击</t>
+    <t>普通投掷攻击</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="23415" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,9 @@
     <t>collider_size</t>
   </si>
   <si>
+    <t>collider_area_size</t>
+  </si>
+  <si>
     <t>speed_move</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>碰撞检测大小</t>
   </si>
   <si>
+    <t>碰撞范围检测</t>
+  </si>
+  <si>
     <t>移动速度</t>
   </si>
   <si>
@@ -99,6 +105,21 @@
   </si>
   <si>
     <t>普通投掷攻击</t>
+  </si>
+  <si>
+    <t>AttackModeRangedArea</t>
+  </si>
+  <si>
+    <t>AttackMode_RangedFireBall</t>
+  </si>
+  <si>
+    <t>火球直线攻击-范围伤害</t>
+  </si>
+  <si>
+    <t>AttackMode_RangedIceBall</t>
+  </si>
+  <si>
+    <t>冰球直线攻击-范围伤害</t>
   </si>
 </sst>
 </file>
@@ -1066,20 +1087,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="6" width="47.5" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="2" max="4" width="47.5" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="7" width="47.5" customWidth="1"/>
+    <col min="8" max="8" width="42.875" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,95 +1124,153 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>100001</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4"/>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>200001</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>201001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:8">
+      <c r="A7">
+        <v>201002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1213,7 +1294,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:H88">
+  <sortState ref="A4:I88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23415" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,9 @@
     <t>collider_area_size</t>
   </si>
   <si>
+    <t>effect_hit</t>
+  </si>
+  <si>
     <t>speed_move</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>碰撞范围检测</t>
   </si>
   <si>
+    <t>碰撞之后的特效</t>
+  </si>
+  <si>
     <t>移动速度</t>
   </si>
   <si>
@@ -113,10 +119,16 @@
     <t>AttackMode_RangedFireBall</t>
   </si>
   <si>
+    <t>EffectBoom_Fire_1</t>
+  </si>
+  <si>
     <t>火球直线攻击-范围伤害</t>
   </si>
   <si>
     <t>AttackMode_RangedIceBall</t>
+  </si>
+  <si>
+    <t>EffectBoom_Ice_1</t>
   </si>
   <si>
     <t>冰球直线攻击-范围伤害</t>
@@ -1087,22 +1099,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="4" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="43.75" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="7" width="47.5" customWidth="1"/>
-    <col min="8" max="8" width="42.875" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="42.875" customWidth="1"/>
+    <col min="10" max="10" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1127,112 +1143,121 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>100001</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4"/>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
+      <c r="I4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>200001</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
+      <c r="I5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>201001</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -1240,25 +1265,28 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>28</v>
+      <c r="I6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:8">
+    <row r="7" customFormat="1" spans="1:9">
       <c r="A7">
         <v>201002</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>0.1</v>
@@ -1266,11 +1294,14 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
-        <v>30</v>
+      <c r="I7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1294,7 +1325,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:I88">
+  <sortState ref="A4:J88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -77,13 +77,13 @@
     <t>攻击buff</t>
   </si>
   <si>
-    <t>碰撞检测大小</t>
-  </si>
-  <si>
-    <t>碰撞范围检测</t>
-  </si>
-  <si>
-    <t>碰撞之后的特效</t>
+    <t>碰撞检测大小（用于点到点）</t>
+  </si>
+  <si>
+    <t>碰撞范围检测（用于范围）</t>
+  </si>
+  <si>
+    <t>打击之后的特效</t>
   </si>
   <si>
     <t>移动速度</t>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>冰球直线攻击-范围伤害</t>
+  </si>
+  <si>
+    <t>AttackModeExplosion</t>
+  </si>
+  <si>
+    <t>EffectExplosion_1</t>
+  </si>
+  <si>
+    <t>爆炸范围攻击-火焰</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1111,7 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1110,8 +1119,8 @@
     <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="43.75" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="19.375" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="42.875" customWidth="1"/>
@@ -1302,6 +1311,30 @@
       </c>
       <c r="I7" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>300001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8"/>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>1.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>effect_hit</t>
   </si>
   <si>
+    <t>effect_damage</t>
+  </si>
+  <si>
     <t>speed_move</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>打击之后的特效</t>
   </si>
   <si>
+    <t>受伤特效（默认不填，0为关闭）</t>
+  </si>
+  <si>
     <t>移动速度</t>
   </si>
   <si>
@@ -107,7 +113,7 @@
     <t>AttackMode_RangedNormal</t>
   </si>
   <si>
-    <t>id:1001,triggerValue:-0.5,triggerTime:5</t>
+    <t>id:100001,triggerValueRate:0.5,triggerTime:5</t>
   </si>
   <si>
     <t>普通投掷攻击</t>
@@ -141,6 +147,21 @@
   </si>
   <si>
     <t>爆炸范围攻击-火焰</t>
+  </si>
+  <si>
+    <t>AttackModeOverlap</t>
+  </si>
+  <si>
+    <t>id:101001,triggerValueRate:0.2,triggerTime:0.5</t>
+  </si>
+  <si>
+    <t>重叠攻击-粘液减速</t>
+  </si>
+  <si>
+    <t>id:300001,triggerValue:10,triggerTime:1,triggerNum:3</t>
+  </si>
+  <si>
+    <t>重叠攻击-中毒</t>
   </si>
 </sst>
 </file>
@@ -1108,26 +1129,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="43.75" customWidth="1"/>
+    <col min="4" max="4" width="74.75" customWidth="1"/>
     <col min="5" max="5" width="27.875" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="42.875" customWidth="1"/>
-    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="50.125" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="42.875" customWidth="1"/>
+    <col min="11" max="11" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,118 +1177,133 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>100001</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4"/>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>23</v>
+      <c r="J4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>200001</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="H5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>27</v>
+      <c r="J5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>201001</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -1275,27 +1312,27 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>31</v>
+      <c r="J6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:9">
+    <row r="7" customFormat="1" spans="1:10">
       <c r="A7">
         <v>201002</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>0.1</v>
@@ -1304,21 +1341,21 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="J7" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>300001</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8"/>
       <c r="E8">
@@ -1328,37 +1365,89 @@
         <v>1.5</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
+      <c r="J8" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1"/>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
-    <row r="36" ht="15" customHeight="1"/>
-    <row r="37" ht="15" customHeight="1"/>
-    <row r="38" ht="15" customHeight="1"/>
-    <row r="39" ht="15" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
-    <row r="41" ht="15" customHeight="1"/>
-    <row r="42" ht="15" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
-    <row r="79" ht="12" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
-    <row r="81" ht="12" customHeight="1"/>
-    <row r="82" ht="12" customHeight="1"/>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>400001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>400002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1"/>
+    <row r="15" ht="15" customHeight="1"/>
+    <row r="16" ht="15" customHeight="1"/>
+    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" ht="15" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1"/>
+    <row r="21" ht="15" customHeight="1"/>
+    <row r="22" ht="15" customHeight="1"/>
+    <row r="23" ht="15" customHeight="1"/>
+    <row r="24" ht="15" customHeight="1"/>
+    <row r="56" ht="12" customHeight="1"/>
+    <row r="57" ht="12" customHeight="1"/>
+    <row r="58" ht="12" customHeight="1"/>
+    <row r="59" ht="12" customHeight="1"/>
+    <row r="60" ht="12" customHeight="1"/>
+    <row r="61" ht="12" customHeight="1"/>
+    <row r="62" ht="12" customHeight="1"/>
+    <row r="63" ht="12" customHeight="1"/>
+    <row r="64" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:J88">
+  <sortState ref="A4:K88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,9 @@
     <t>collider_size</t>
   </si>
   <si>
+    <t>collider_area_type</t>
+  </si>
+  <si>
     <t>collider_area_size</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t>碰撞检测大小（用于点到点）</t>
   </si>
   <si>
+    <t>碰撞范围类型11中心圆形 12前方圆形 21中心box 22前方box</t>
+  </si>
+  <si>
     <t>碰撞范围检测（用于范围）</t>
   </si>
   <si>
@@ -105,6 +114,15 @@
   </si>
   <si>
     <t>普通近战攻击</t>
+  </si>
+  <si>
+    <t>AttackModeMeleeArea</t>
+  </si>
+  <si>
+    <t>1.5,1,0.25</t>
+  </si>
+  <si>
+    <t>普通近战范围-前方镰刀打击</t>
   </si>
   <si>
     <t>AttackModeRanged</t>
@@ -777,8 +795,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,27 +1150,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="74.75" customWidth="1"/>
+    <col min="4" max="4" width="58.25" customWidth="1"/>
     <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="8" width="50.125" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="42.875" customWidth="1"/>
-    <col min="11" max="11" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="56.875" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="30.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="42.875" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1180,253 +1202,297 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>100001</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4"/>
       <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>25</v>
+      <c r="K4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
+        <v>101001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5"/>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
         <v>200001</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>201001</v>
-      </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0.1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
+      <c r="K6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>201002</v>
+        <v>201001</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0.1</v>
       </c>
       <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:11">
+      <c r="A8">
+        <v>201002</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="9" spans="1:11">
+      <c r="A9">
         <v>300001</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8"/>
-      <c r="E8">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9"/>
+      <c r="E9">
         <v>1.5</v>
       </c>
-      <c r="F8">
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
         <v>1.5</v>
       </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8">
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>39</v>
+      <c r="K9" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="10" spans="1:11">
+      <c r="A10">
         <v>400001</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>400002</v>
-      </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>0.5</v>
       </c>
       <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
         <v>0.5</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>44</v>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1"/>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>400002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="15" ht="15" customHeight="1"/>
     <row r="16" ht="15" customHeight="1"/>
     <row r="17" ht="15" customHeight="1"/>
@@ -1437,7 +1503,7 @@
     <row r="22" ht="15" customHeight="1"/>
     <row r="23" ht="15" customHeight="1"/>
     <row r="24" ht="15" customHeight="1"/>
-    <row r="56" ht="12" customHeight="1"/>
+    <row r="25" ht="15" customHeight="1"/>
     <row r="57" ht="12" customHeight="1"/>
     <row r="58" ht="12" customHeight="1"/>
     <row r="59" ht="12" customHeight="1"/>
@@ -1446,8 +1512,9 @@
     <row r="62" ht="12" customHeight="1"/>
     <row r="63" ht="12" customHeight="1"/>
     <row r="64" ht="12" customHeight="1"/>
+    <row r="65" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:K88">
+  <sortState ref="A4:L88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -143,25 +143,16 @@
     <t>AttackMode_RangedFireBall</t>
   </si>
   <si>
-    <t>EffectBoom_Fire_1</t>
-  </si>
-  <si>
     <t>火球直线攻击-范围伤害</t>
   </si>
   <si>
     <t>AttackMode_RangedIceBall</t>
   </si>
   <si>
-    <t>EffectBoom_Ice_1</t>
-  </si>
-  <si>
     <t>冰球直线攻击-范围伤害</t>
   </si>
   <si>
     <t>AttackModeExplosion</t>
-  </si>
-  <si>
-    <t>EffectExplosion_1</t>
   </si>
   <si>
     <t>爆炸范围攻击-火焰</t>
@@ -1152,8 +1143,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1164,7 +1155,7 @@
     <col min="5" max="5" width="27.875" customWidth="1"/>
     <col min="6" max="6" width="56.875" customWidth="1"/>
     <col min="7" max="7" width="25.375" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="30.75" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="42.875" customWidth="1"/>
@@ -1229,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1366,14 +1357,14 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
+      <c r="H7">
+        <v>100001</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:11">
@@ -1384,7 +1375,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1398,14 +1389,14 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>41</v>
+      <c r="H8">
+        <v>200001</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1413,7 +1404,7 @@
         <v>300001</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9"/>
       <c r="E9">
@@ -1425,14 +1416,14 @@
       <c r="G9">
         <v>1.5</v>
       </c>
-      <c r="H9" t="s">
-        <v>44</v>
+      <c r="H9">
+        <v>300001</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1440,10 +1431,10 @@
         <v>400001</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0.5</v>
@@ -1461,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1469,10 +1460,10 @@
         <v>400002</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -1490,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>重叠攻击-中毒</t>
+  </si>
+  <si>
+    <t>AttackModeRegainHP</t>
+  </si>
+  <si>
+    <t>加血</t>
+  </si>
+  <si>
+    <t>AttackModeRegainDR</t>
+  </si>
+  <si>
+    <t>加护甲</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,6 +1320,9 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
+      <c r="H5">
+        <v>400001</v>
+      </c>
       <c r="K5" t="s">
         <v>31</v>
       </c>
@@ -1482,6 +1497,52 @@
       </c>
       <c r="K11" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>500001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>500001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>500002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>500002</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>buff</t>
   </si>
   <si>
+    <t>attack_search_type</t>
+  </si>
+  <si>
     <t>collider_size</t>
   </si>
   <si>
@@ -68,12 +71,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -86,10 +89,13 @@
     <t>攻击buff</t>
   </si>
   <si>
+    <t>攻击搜索敌人类型</t>
+  </si>
+  <si>
     <t>碰撞检测大小（用于点到点）</t>
   </si>
   <si>
-    <t>碰撞范围类型11中心圆形 12前方圆形 21中心box 22前方box</t>
+    <t>碰撞范围搜索敌人类型</t>
   </si>
   <si>
     <t>碰撞范围检测（用于范围）</t>
@@ -152,6 +158,15 @@
     <t>冰球直线攻击-范围伤害</t>
   </si>
   <si>
+    <t>AttackModeRangedTracking</t>
+  </si>
+  <si>
+    <t>AttackMode_RangedLove</t>
+  </si>
+  <si>
+    <t>爱心-跟踪</t>
+  </si>
+  <si>
     <t>AttackModeExplosion</t>
   </si>
   <si>
@@ -183,6 +198,12 @@
   </si>
   <si>
     <t>加护甲</t>
+  </si>
+  <si>
+    <t>AttackModeLure</t>
+  </si>
+  <si>
+    <t>引诱敌人到当前线路</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1164,17 +1185,18 @@
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="58.25" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="56.875" customWidth="1"/>
-    <col min="7" max="7" width="25.375" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="30.75" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="42.875" customWidth="1"/>
-    <col min="12" max="12" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="27.875" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="30.75" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="42.875" customWidth="1"/>
+    <col min="13" max="13" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,31 +1230,34 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1241,311 +1266,359 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>100001</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4"/>
-      <c r="E4">
+      <c r="F4">
         <v>0.1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>28</v>
+      <c r="L4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>101001</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5"/>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
         <v>400001</v>
       </c>
-      <c r="K5" t="s">
-        <v>31</v>
+      <c r="L5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>200001</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
+        <v>36</v>
+      </c>
+      <c r="F6">
         <v>0.1</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>35</v>
+      <c r="L6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>201001</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>11</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>100001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
-        <v>38</v>
+      <c r="L7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:11">
+    <row r="8" customFormat="1" spans="1:12">
       <c r="A8">
         <v>201002</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>200001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
-        <v>40</v>
+      <c r="L8" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" customFormat="1" spans="1:12">
       <c r="A9">
+        <v>202001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
         <v>300001</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9"/>
-      <c r="E9">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10"/>
+      <c r="F10">
         <v>1.5</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>11</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>1.5</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>300001</v>
       </c>
-      <c r="J9">
+      <c r="K10">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>42</v>
+      <c r="L10" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
+    <row r="11" spans="1:12">
+      <c r="A11">
         <v>400001</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11">
         <v>0.5</v>
       </c>
-      <c r="F10">
+      <c r="G11">
         <v>11</v>
       </c>
-      <c r="G10">
+      <c r="H11">
         <v>0.5</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>400002</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>47</v>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12">
-        <v>500001</v>
+        <v>400002</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="E12">
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>500001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="G13">
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="I13">
         <v>500001</v>
       </c>
-      <c r="K12" t="s">
-        <v>49</v>
+      <c r="L13" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
+    <row r="14" spans="1:12">
+      <c r="A14">
         <v>500002</v>
       </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="G14">
         <v>11</v>
       </c>
-      <c r="G13">
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="I14">
         <v>500002</v>
       </c>
-      <c r="K13" t="s">
-        <v>51</v>
+      <c r="L14" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1"/>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>600001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>600001</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="16" ht="15" customHeight="1"/>
     <row r="17" ht="15" customHeight="1"/>
     <row r="18" ht="15" customHeight="1"/>
@@ -1556,7 +1629,7 @@
     <row r="23" ht="15" customHeight="1"/>
     <row r="24" ht="15" customHeight="1"/>
     <row r="25" ht="15" customHeight="1"/>
-    <row r="57" ht="12" customHeight="1"/>
+    <row r="26" ht="15" customHeight="1"/>
     <row r="58" ht="12" customHeight="1"/>
     <row r="59" ht="12" customHeight="1"/>
     <row r="60" ht="12" customHeight="1"/>
@@ -1565,8 +1638,9 @@
     <row r="63" ht="12" customHeight="1"/>
     <row r="64" ht="12" customHeight="1"/>
     <row r="65" ht="12" customHeight="1"/>
+    <row r="66" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:L88">
+  <sortState ref="A4:M88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -1176,8 +1176,8 @@
   <sheetPr/>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,7 +1320,6 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4"/>
       <c r="F4">
         <v>0.1</v>
       </c>
@@ -1341,7 +1340,6 @@
       <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5"/>
       <c r="F5">
         <v>3</v>
       </c>
@@ -1478,7 +1476,6 @@
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C10"/>
       <c r="F10">
         <v>1.5</v>
       </c>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -89,7 +89,7 @@
     <t>攻击buff</t>
   </si>
   <si>
-    <t>攻击搜索敌人类型</t>
+    <t>攻击搜索敌人类型（用于检测弹道是否打到）</t>
   </si>
   <si>
     <t>碰撞检测大小（用于点到点）</t>
@@ -131,6 +131,9 @@
     <t>普通近战范围-前方镰刀打击</t>
   </si>
   <si>
+    <t>普通近战范围-捶地攻击</t>
+  </si>
+  <si>
     <t>AttackModeRanged</t>
   </si>
   <si>
@@ -149,13 +152,13 @@
     <t>AttackMode_RangedFireBall</t>
   </si>
   <si>
-    <t>火球直线攻击-范围伤害</t>
+    <t>普通投掷火球直线攻击-范围伤害</t>
   </si>
   <si>
     <t>AttackMode_RangedIceBall</t>
   </si>
   <si>
-    <t>冰球直线攻击-范围伤害</t>
+    <t>普通投掷冰球直线攻击-范围伤害</t>
   </si>
   <si>
     <t>AttackModeRangedTracking</t>
@@ -164,7 +167,13 @@
     <t>AttackMode_RangedLove</t>
   </si>
   <si>
-    <t>爱心-跟踪</t>
+    <t>普通投掷跟踪-爱心</t>
+  </si>
+  <si>
+    <t>AttackModeRangedArc</t>
+  </si>
+  <si>
+    <t>普通投掷抛物线-石头</t>
   </si>
   <si>
     <t>AttackModeExplosion</t>
@@ -204,6 +213,15 @@
   </si>
   <si>
     <t>引诱敌人到当前线路</t>
+  </si>
+  <si>
+    <t>AttackModeFalluponArea</t>
+  </si>
+  <si>
+    <t>普通近战-捶地火锥</t>
+  </si>
+  <si>
+    <t>普通近战-捶地冰锥</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1192,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1185,7 +1203,7 @@
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="58.25" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="5" max="5" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="27.875" customWidth="1"/>
     <col min="7" max="7" width="21.25" customWidth="1"/>
     <col min="8" max="8" width="25.375" customWidth="1"/>
@@ -1356,73 +1374,61 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" customFormat="1" spans="1:12">
       <c r="A6">
-        <v>200001</v>
+        <v>101002</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>0.1</v>
       </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="I6">
+        <v>700001</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>201001</v>
+        <v>200001</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
       </c>
       <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>100001</v>
-      </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="12" customHeight="1" spans="1:12">
+      <c r="A8">
+        <v>201001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:12">
-      <c r="A8">
-        <v>201002</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -1434,192 +1440,286 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>200001</v>
+        <v>100001</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:12">
       <c r="A9">
-        <v>202001</v>
+        <v>201002</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
       </c>
       <c r="F9">
         <v>0.1</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>200001</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:12">
+      <c r="A10">
+        <v>202001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>300001</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>46</v>
       </c>
-      <c r="F10">
-        <v>1.5</v>
-      </c>
-      <c r="G10">
+    </row>
+    <row r="11" customFormat="1" spans="1:12">
+      <c r="A11">
+        <v>203001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
         <v>11</v>
       </c>
-      <c r="H10">
-        <v>1.5</v>
-      </c>
-      <c r="I10">
-        <v>300001</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>400001</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F11">
+        <v>0.25</v>
+      </c>
+      <c r="G11">
+        <v>41</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>400002</v>
+        <v>300001</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="I12">
+        <v>300001</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>500001</v>
+        <v>400001</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>500001</v>
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>500002</v>
+        <v>400002</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
         <v>11</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>500002</v>
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
+        <v>500001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>500001</v>
+      </c>
+      <c r="L15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>500002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>500002</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>600001</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I17">
         <v>600001</v>
       </c>
-      <c r="L15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1"/>
-    <row r="17" ht="15" customHeight="1"/>
-    <row r="18" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1"/>
+      <c r="L17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:12">
+      <c r="A18">
+        <v>700001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>800001</v>
+      </c>
+      <c r="L18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:12">
+      <c r="A19">
+        <v>700002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>800002</v>
+      </c>
+      <c r="L19" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="20" ht="15" customHeight="1"/>
     <row r="21" ht="15" customHeight="1"/>
     <row r="22" ht="15" customHeight="1"/>
@@ -1627,8 +1727,8 @@
     <row r="24" ht="15" customHeight="1"/>
     <row r="25" ht="15" customHeight="1"/>
     <row r="26" ht="15" customHeight="1"/>
-    <row r="58" ht="12" customHeight="1"/>
-    <row r="59" ht="12" customHeight="1"/>
+    <row r="27" ht="15" customHeight="1"/>
+    <row r="28" ht="15" customHeight="1"/>
     <row r="60" ht="12" customHeight="1"/>
     <row r="61" ht="12" customHeight="1"/>
     <row r="62" ht="12" customHeight="1"/>
@@ -1636,6 +1736,8 @@
     <row r="64" ht="12" customHeight="1"/>
     <row r="65" ht="12" customHeight="1"/>
     <row r="66" ht="12" customHeight="1"/>
+    <row r="67" ht="12" customHeight="1"/>
+    <row r="68" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:M88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -95,7 +95,7 @@
     <t>碰撞检测大小（用于点到点）</t>
   </si>
   <si>
-    <t>碰撞范围搜索敌人类型</t>
+    <t>碰撞范围搜索敌人类型（用于范围弹道检测）</t>
   </si>
   <si>
     <t>碰撞范围检测（用于范围）</t>
@@ -143,7 +143,7 @@
     <t>id:100001,triggerValueRate:0.5,triggerTime:5</t>
   </si>
   <si>
-    <t>普通投掷攻击</t>
+    <t>远程攻击-攻击</t>
   </si>
   <si>
     <t>AttackModeRangedArea</t>
@@ -152,13 +152,13 @@
     <t>AttackMode_RangedFireBall</t>
   </si>
   <si>
-    <t>普通投掷火球直线攻击-范围伤害</t>
+    <t>远程攻击-火球直线攻击-范围伤害</t>
   </si>
   <si>
     <t>AttackMode_RangedIceBall</t>
   </si>
   <si>
-    <t>普通投掷冰球直线攻击-范围伤害</t>
+    <t>远程攻击-冰球直线攻击-范围伤害</t>
   </si>
   <si>
     <t>AttackModeRangedTracking</t>
@@ -167,13 +167,25 @@
     <t>AttackMode_RangedLove</t>
   </si>
   <si>
-    <t>普通投掷跟踪-爱心</t>
+    <t>远程攻击-跟踪-爱心</t>
   </si>
   <si>
     <t>AttackModeRangedArc</t>
   </si>
   <si>
-    <t>普通投掷抛物线-石头</t>
+    <t>远程攻击-抛物线-石头</t>
+  </si>
+  <si>
+    <t>AttackModeRangedSplit</t>
+  </si>
+  <si>
+    <t>远程攻击-分裂</t>
+  </si>
+  <si>
+    <t>AttackModeRangedPiercing</t>
+  </si>
+  <si>
+    <t>远程攻击-穿透</t>
   </si>
   <si>
     <t>AttackModeExplosion</t>
@@ -1192,10 +1204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1205,7 +1217,7 @@
     <col min="4" max="4" width="58.25" customWidth="1"/>
     <col min="5" max="5" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="27.875" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
     <col min="8" max="8" width="25.375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="30.75" customWidth="1"/>
@@ -1523,9 +1535,8 @@
       <c r="F11">
         <v>0.25</v>
       </c>
-      <c r="G11">
-        <v>41</v>
-      </c>
+      <c r="G11"/>
+      <c r="H11"/>
       <c r="K11">
         <v>1</v>
       </c>
@@ -1533,108 +1544,96 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A12">
-        <v>300001</v>
+        <v>204001</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
       <c r="F12">
-        <v>1.5</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>1.5</v>
-      </c>
-      <c r="I12">
-        <v>300001</v>
+        <v>0.1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A13">
-        <v>400001</v>
+        <v>205001</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>52</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>0.5</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>400002</v>
+        <v>300001</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G14">
         <v>11</v>
       </c>
       <c r="H14">
-        <v>0.5</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="I14">
+        <v>300001</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>500001</v>
+        <v>400001</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
         <v>56</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>500001</v>
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>57</v>
@@ -1642,22 +1641,28 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>500002</v>
+        <v>400002</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
         <v>58</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
         <v>11</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>500002</v>
+        <v>0.5</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>59</v>
@@ -1665,28 +1670,37 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>600001</v>
+        <v>500001</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>600001</v>
+        <v>500001</v>
       </c>
       <c r="L17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:12">
+    <row r="18" spans="1:12">
       <c r="A18">
-        <v>700001</v>
+        <v>500002</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
       </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
       <c r="G18">
         <v>11</v>
       </c>
@@ -1694,34 +1708,69 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>800001</v>
+        <v>500002</v>
       </c>
       <c r="L18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:12">
+    <row r="19" spans="1:12">
       <c r="A19">
+        <v>600001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>600001</v>
+      </c>
+      <c r="L19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:12">
+      <c r="A20">
+        <v>700001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>800001</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:12">
+      <c r="A21">
         <v>700002</v>
       </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21">
         <v>11</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>800002</v>
       </c>
-      <c r="L19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1"/>
-    <row r="21" ht="15" customHeight="1"/>
+      <c r="L21" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="22" ht="15" customHeight="1"/>
     <row r="23" ht="15" customHeight="1"/>
     <row r="24" ht="15" customHeight="1"/>
@@ -1729,7 +1778,7 @@
     <row r="26" ht="15" customHeight="1"/>
     <row r="27" ht="15" customHeight="1"/>
     <row r="28" ht="15" customHeight="1"/>
-    <row r="60" ht="12" customHeight="1"/>
+    <row r="29" ht="15" customHeight="1"/>
     <row r="61" ht="12" customHeight="1"/>
     <row r="62" ht="12" customHeight="1"/>
     <row r="63" ht="12" customHeight="1"/>
@@ -1738,6 +1787,7 @@
     <row r="66" ht="12" customHeight="1"/>
     <row r="67" ht="12" customHeight="1"/>
     <row r="68" ht="12" customHeight="1"/>
+    <row r="69" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:M88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27735" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -140,9 +140,6 @@
     <t>AttackMode_RangedNormal</t>
   </si>
   <si>
-    <t>id:100001,triggerValueRate:0.5,triggerTime:5</t>
-  </si>
-  <si>
     <t>远程攻击-攻击</t>
   </si>
   <si>
@@ -197,13 +194,7 @@
     <t>AttackModeOverlap</t>
   </si>
   <si>
-    <t>id:101001,triggerValueRate:0.2,triggerTime:0.5</t>
-  </si>
-  <si>
     <t>重叠攻击-粘液减速</t>
-  </si>
-  <si>
-    <t>id:300001,triggerValue:10,triggerTime:1,triggerNum:3</t>
   </si>
   <si>
     <t>重叠攻击-中毒</t>
@@ -1207,14 +1198,14 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="58.25" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="27.875" customWidth="1"/>
     <col min="7" max="7" width="42.125" customWidth="1"/>
@@ -1419,9 +1410,7 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
+      <c r="D7"/>
       <c r="F7">
         <v>0.1</v>
       </c>
@@ -1429,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:12">
@@ -1437,10 +1426,10 @@
         <v>201001</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -1458,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:12">
@@ -1466,14 +1455,12 @@
         <v>201002</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D9"/>
       <c r="F9">
         <v>0.1</v>
       </c>
@@ -1490,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:12">
@@ -1498,10 +1485,10 @@
         <v>202001</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -1516,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:12">
@@ -1524,7 +1511,7 @@
         <v>203001</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1541,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:12">
@@ -1549,7 +1536,7 @@
         <v>204001</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1561,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:12">
@@ -1569,7 +1556,7 @@
         <v>205001</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1581,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1589,7 +1576,7 @@
         <v>300001</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>1.5</v>
@@ -1607,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1615,10 +1602,7 @@
         <v>400001</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>0.5</v>
@@ -1636,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1644,10 +1628,7 @@
         <v>400002</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>0.5</v>
@@ -1665,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1673,7 +1654,7 @@
         <v>500001</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1688,7 +1669,7 @@
         <v>500001</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1696,7 +1677,7 @@
         <v>500002</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1711,7 +1692,7 @@
         <v>500002</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1719,7 +1700,7 @@
         <v>600001</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1728,7 +1709,7 @@
         <v>600001</v>
       </c>
       <c r="L19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:12">
@@ -1736,7 +1717,7 @@
         <v>700001</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -1748,7 +1729,7 @@
         <v>800001</v>
       </c>
       <c r="L20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:12">
@@ -1756,7 +1737,7 @@
         <v>700002</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -1768,7 +1749,7 @@
         <v>800002</v>
       </c>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="7350"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -1198,14 +1198,14 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
     <col min="5" max="5" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="27.875" customWidth="1"/>
     <col min="7" max="7" width="42.125" customWidth="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -176,13 +176,25 @@
     <t>AttackModeRangedSplit</t>
   </si>
   <si>
-    <t>远程攻击-分裂</t>
+    <t>远程攻击-分裂弓箭</t>
+  </si>
+  <si>
+    <t>远程攻击-分裂火球</t>
+  </si>
+  <si>
+    <t>远程攻击-分裂冰球</t>
   </si>
   <si>
     <t>AttackModeRangedPiercing</t>
   </si>
   <si>
     <t>远程攻击-穿透</t>
+  </si>
+  <si>
+    <t>远程攻击-穿透火锥</t>
+  </si>
+  <si>
+    <t>远程攻击-穿透冰锥</t>
   </si>
   <si>
     <t>AttackModeExplosion</t>
@@ -1195,10 +1207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1410,7 +1422,6 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="D7"/>
       <c r="F7">
         <v>0.1</v>
       </c>
@@ -1553,13 +1564,13 @@
     </row>
     <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A13">
-        <v>205001</v>
+        <v>204002</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>0.1</v>
@@ -1568,176 +1579,176 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A14">
+        <v>204003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>300001</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A15">
+        <v>205001</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="F14">
-        <v>1.5</v>
-      </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>1.5</v>
-      </c>
-      <c r="I14">
-        <v>300001</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>400001</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A16">
+        <v>205002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>54</v>
       </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>0.5</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
+    </row>
+    <row r="17" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A17">
+        <v>205003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>400002</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>11</v>
-      </c>
-      <c r="H16">
-        <v>0.5</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>500001</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>500001</v>
-      </c>
-      <c r="L17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>500002</v>
+        <v>300001</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G18">
         <v>11</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I18">
-        <v>500002</v>
+        <v>300001</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>600001</v>
+        <v>400001</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
       </c>
       <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>600001</v>
+      <c r="K19">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
-        <v>700001</v>
+        <v>400002</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
       </c>
       <c r="G20">
         <v>11</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>800001</v>
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
-        <v>700002</v>
+        <v>500001</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -1746,29 +1757,109 @@
         <v>1</v>
       </c>
       <c r="I21">
+        <v>500001</v>
+      </c>
+      <c r="L21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>500002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>500002</v>
+      </c>
+      <c r="L22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>600001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>600001</v>
+      </c>
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:12">
+      <c r="A24">
+        <v>700001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>800001</v>
+      </c>
+      <c r="L24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:12">
+      <c r="A25">
+        <v>700002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>800002</v>
       </c>
-      <c r="L21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1"/>
-    <row r="23" ht="15" customHeight="1"/>
-    <row r="24" ht="15" customHeight="1"/>
-    <row r="25" ht="15" customHeight="1"/>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="26" ht="15" customHeight="1"/>
     <row r="27" ht="15" customHeight="1"/>
     <row r="28" ht="15" customHeight="1"/>
     <row r="29" ht="15" customHeight="1"/>
-    <row r="61" ht="12" customHeight="1"/>
-    <row r="62" ht="12" customHeight="1"/>
-    <row r="63" ht="12" customHeight="1"/>
-    <row r="64" ht="12" customHeight="1"/>
+    <row r="30" ht="15" customHeight="1"/>
+    <row r="31" ht="15" customHeight="1"/>
+    <row r="32" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
     <row r="65" ht="12" customHeight="1"/>
     <row r="66" ht="12" customHeight="1"/>
     <row r="67" ht="12" customHeight="1"/>
     <row r="68" ht="12" customHeight="1"/>
     <row r="69" ht="12" customHeight="1"/>
+    <row r="70" ht="12" customHeight="1"/>
+    <row r="71" ht="12" customHeight="1"/>
+    <row r="72" ht="12" customHeight="1"/>
+    <row r="73" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:M88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,12 @@
     <t>speed_move</t>
   </si>
   <si>
+    <t>sound_miss</t>
+  </si>
+  <si>
+    <t>sound_hit</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -108,6 +114,12 @@
   </si>
   <si>
     <t>移动速度</t>
+  </si>
+  <si>
+    <t>音效-miss</t>
+  </si>
+  <si>
+    <t>音效-击中</t>
   </si>
   <si>
     <t>备注</t>
@@ -1207,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1224,12 +1236,12 @@
     <col min="8" max="8" width="25.375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="30.75" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="42.875" customWidth="1"/>
-    <col min="13" max="13" width="25.125" customWidth="1"/>
+    <col min="11" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="42.875" customWidth="1"/>
+    <col min="15" max="15" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1266,92 +1278,110 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>100001</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1362,16 +1392,22 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>100001</v>
+      </c>
+      <c r="M4">
+        <v>200001</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>101001</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1380,21 +1416,27 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>400001</v>
       </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:12">
+      <c r="L5">
+        <v>100001</v>
+      </c>
+      <c r="M5">
+        <v>200001</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:14">
       <c r="A6">
         <v>101002</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1408,19 +1450,25 @@
       <c r="I6">
         <v>700001</v>
       </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6">
+        <v>100001</v>
+      </c>
+      <c r="M6">
+        <v>200001</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>200001</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -1428,19 +1476,25 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" ht="12" customHeight="1" spans="1:12">
+      <c r="L7">
+        <v>100001</v>
+      </c>
+      <c r="M7">
+        <v>200001</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="12" customHeight="1" spans="1:14">
       <c r="A8">
         <v>201001</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -1457,19 +1511,25 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:12">
+      <c r="L8">
+        <v>100001</v>
+      </c>
+      <c r="M8">
+        <v>200001</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:14">
       <c r="A9">
         <v>201002</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9"/>
       <c r="F9">
@@ -1487,19 +1547,25 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:12">
+      <c r="L9">
+        <v>100001</v>
+      </c>
+      <c r="M9">
+        <v>200001</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:14">
       <c r="A10">
         <v>202001</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -1513,19 +1579,25 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:12">
+      <c r="L10">
+        <v>100001</v>
+      </c>
+      <c r="M10">
+        <v>200001</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:14">
       <c r="A11">
         <v>203001</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>11</v>
@@ -1538,19 +1610,25 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="L11">
+        <v>100001</v>
+      </c>
+      <c r="M11">
+        <v>200001</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A12">
         <v>204001</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>0.1</v>
@@ -1558,19 +1636,25 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="L12">
+        <v>100001</v>
+      </c>
+      <c r="M12">
+        <v>200001</v>
+      </c>
+      <c r="N12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A13">
         <v>204002</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <v>0.1</v>
@@ -1578,19 +1662,25 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="L13">
+        <v>100001</v>
+      </c>
+      <c r="M13">
+        <v>200001</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A14">
         <v>204003</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F14">
         <v>0.1</v>
@@ -1598,19 +1688,25 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="L14">
+        <v>100001</v>
+      </c>
+      <c r="M14">
+        <v>200001</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A15">
         <v>205001</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>0.1</v>
@@ -1618,19 +1714,25 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="L15">
+        <v>100001</v>
+      </c>
+      <c r="M15">
+        <v>200001</v>
+      </c>
+      <c r="N15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A16">
         <v>205002</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>0.1</v>
@@ -1638,19 +1740,25 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="L16">
+        <v>100001</v>
+      </c>
+      <c r="M16">
+        <v>200001</v>
+      </c>
+      <c r="N16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A17">
         <v>205003</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>0.1</v>
@@ -1658,16 +1766,22 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="L17">
+        <v>100001</v>
+      </c>
+      <c r="M17">
+        <v>200001</v>
+      </c>
+      <c r="N17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>300001</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>1.5</v>
@@ -1684,16 +1798,22 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="L18">
+        <v>100001</v>
+      </c>
+      <c r="M18">
+        <v>200001</v>
+      </c>
+      <c r="N18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>400001</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>0.5</v>
@@ -1710,16 +1830,22 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19">
+        <v>100001</v>
+      </c>
+      <c r="M19">
+        <v>200001</v>
+      </c>
+      <c r="N19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>400002</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -1736,16 +1862,22 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20">
+        <v>100001</v>
+      </c>
+      <c r="M20">
+        <v>200001</v>
+      </c>
+      <c r="N20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>500001</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1759,16 +1891,22 @@
       <c r="I21">
         <v>500001</v>
       </c>
-      <c r="L21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="L21">
+        <v>100001</v>
+      </c>
+      <c r="M21">
+        <v>200001</v>
+      </c>
+      <c r="N21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>500002</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1782,16 +1920,22 @@
       <c r="I22">
         <v>500002</v>
       </c>
-      <c r="L22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="L22">
+        <v>100001</v>
+      </c>
+      <c r="M22">
+        <v>200001</v>
+      </c>
+      <c r="N22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>600001</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1799,16 +1943,22 @@
       <c r="I23">
         <v>600001</v>
       </c>
-      <c r="L23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:12">
+      <c r="L23">
+        <v>100001</v>
+      </c>
+      <c r="M23">
+        <v>200001</v>
+      </c>
+      <c r="N23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:14">
       <c r="A24">
         <v>700001</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G24">
         <v>11</v>
@@ -1819,16 +1969,22 @@
       <c r="I24">
         <v>800001</v>
       </c>
-      <c r="L24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:12">
+      <c r="L24">
+        <v>100001</v>
+      </c>
+      <c r="M24">
+        <v>200001</v>
+      </c>
+      <c r="N24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:14">
       <c r="A25">
         <v>700002</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G25">
         <v>11</v>
@@ -1839,8 +1995,14 @@
       <c r="I25">
         <v>800002</v>
       </c>
-      <c r="L25" t="s">
-        <v>69</v>
+      <c r="L25">
+        <v>100001</v>
+      </c>
+      <c r="M25">
+        <v>200001</v>
+      </c>
+      <c r="N25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1"/>
@@ -1861,7 +2023,7 @@
     <row r="72" ht="12" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:M88">
+  <sortState ref="A4:O88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -1221,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="AttackModeInfo" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>预制名字</t>
   </si>
   <si>
-    <t>攻击buff</t>
+    <t>攻击buff（id:概率&amp;id:概率）</t>
   </si>
   <si>
     <t>攻击搜索敌人类型（用于检测弹道是否打到）</t>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -92,7 +92,7 @@
     <t>预制名字</t>
   </si>
   <si>
-    <t>攻击buff（id:概率&amp;id:概率）</t>
+    <t>攻击buff（id:创建概率&amp;id:创建概率）</t>
   </si>
   <si>
     <t>攻击搜索敌人类型（用于检测弹道是否打到）</t>
@@ -1222,14 +1222,14 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
     <col min="5" max="5" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="27.875" customWidth="1"/>
     <col min="7" max="7" width="42.125" customWidth="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_attackmode_info[攻击方式].xlsx
@@ -1221,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
